--- a/skills-checklist.xlsx
+++ b/skills-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53E5B9-EB44-E04A-89C4-EBF35E0B74B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE81152-B56E-F641-9F95-BC1FB00A0218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28240" windowHeight="17220" xr2:uid="{BD0AF76A-7B50-2B47-A6C8-107778DA5607}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28240" windowHeight="17220" xr2:uid="{BD0AF76A-7B50-2B47-A6C8-107778DA5607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,62 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>task</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>follow SOP to calibrate DO, conductivity, and pH</t>
-  </si>
-  <si>
-    <t>wait for readings to stabilize before accepting calibration</t>
-  </si>
-  <si>
-    <t>Follow SOP to program continuous HOBO datalogger to deploy at desired date, time and sampling interval using HOBO Connect phone app</t>
-  </si>
-  <si>
-    <t>Securely attach logger to block for underwater deployment</t>
-  </si>
-  <si>
-    <t>Securely attach line to block and buoy to line using proper knots (bowline and lobster buoy hitch)</t>
-  </si>
-  <si>
-    <t>Follow SOP to filter water samples for TSS and chl a</t>
-  </si>
-  <si>
-    <t>Use pre-muffled filters for TSS</t>
-  </si>
-  <si>
-    <t>Record volume filtered</t>
-  </si>
-  <si>
-    <t>Rinse filter with DI water before removing filter from filter funnel</t>
-  </si>
-  <si>
-    <t>Fold filter in half with filtrate facing in before placing in foil</t>
-  </si>
-  <si>
-    <t>Label foil with date, location, filter number, and volume filtered</t>
-  </si>
-  <si>
-    <t>Follow SOP to use YSI, secchi disk, and LiCOR to measure water quality, secchi depth, and a vertical light profile</t>
-  </si>
-  <si>
-    <t>Wait for YSI readings to stabilize before recording data</t>
-  </si>
-  <si>
-    <t>Accurately transcribe YSI, secchi disk, and light data to water quality data sheet</t>
-  </si>
-  <si>
-    <t>Record researcher names, date, and location on water quality data sheet</t>
-  </si>
-  <si>
-    <t>Properly secure boat to dock using a cleat hitch</t>
-  </si>
-  <si>
     <t>**YSI calibration**</t>
   </si>
   <si>
@@ -105,6 +54,63 @@
   </si>
   <si>
     <t>**Properly secure boat**</t>
+  </si>
+  <si>
+    <t>Wore gloves</t>
+  </si>
+  <si>
+    <t>Used pre-muffled filters for TSS</t>
+  </si>
+  <si>
+    <t>Recorded volume filtered</t>
+  </si>
+  <si>
+    <t>Rinsed filter with DI water before removing filter from filter funnel</t>
+  </si>
+  <si>
+    <t>Folded filter in half with filtrate facing in before placing in foil</t>
+  </si>
+  <si>
+    <t>Labeled foil with date, location, filter number, and volume filtered</t>
+  </si>
+  <si>
+    <t>followed SOP to calibrate DO, conductivity, and pH</t>
+  </si>
+  <si>
+    <t>waited for readings to stabilize before accepting calibration</t>
+  </si>
+  <si>
+    <t>Followed SOP to program continuous HOBO datalogger to deploy at desired date, time and sampling interval using HOBO Connect phone app</t>
+  </si>
+  <si>
+    <t>Securely attached logger to block for underwater deployment</t>
+  </si>
+  <si>
+    <t>Securely attached line to block and buoy to line using proper knots (bowline and lobster buoy hitch)</t>
+  </si>
+  <si>
+    <t>Followed SOP to filter water samples for TSS and chl a</t>
+  </si>
+  <si>
+    <t>Followed SOP to use YSI, secchi disk, and LiCOR to measure water quality, secchi depth, and a vertical light profile</t>
+  </si>
+  <si>
+    <t>Waited for YSI readings to stabilize before recording data</t>
+  </si>
+  <si>
+    <t>Accurately transcribed YSI, secchi disk, and light data to water quality data sheet</t>
+  </si>
+  <si>
+    <t>Recorded researcher names, date, and location on water quality data sheet</t>
+  </si>
+  <si>
+    <t>Properly secured boat to dock using a cleat hitch</t>
+  </si>
+  <si>
+    <t>task (10 points each)</t>
+  </si>
+  <si>
+    <t>completed correctly?</t>
   </si>
 </sst>
 </file>
@@ -476,119 +482,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F5B4B-6CB9-D84D-BD25-ABA359ABD9D4}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.83203125" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/skills-checklist.xlsx
+++ b/skills-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE81152-B56E-F641-9F95-BC1FB00A0218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727C501-8533-C048-90D4-DE643F2BDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28240" windowHeight="17220" xr2:uid="{BD0AF76A-7B50-2B47-A6C8-107778DA5607}"/>
+    <workbookView xWindow="29940" yWindow="1980" windowWidth="28240" windowHeight="17220" xr2:uid="{BD0AF76A-7B50-2B47-A6C8-107778DA5607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>**Program and deploy continuous data logger**</t>
   </si>
   <si>
-    <t>**Filtering for TSS and chl a**</t>
-  </si>
-  <si>
     <t>**Basic water quality measurements**</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
     <t>Folded filter in half with filtrate facing in before placing in foil</t>
   </si>
   <si>
-    <t>Labeled foil with date, location, filter number, and volume filtered</t>
-  </si>
-  <si>
-    <t>followed SOP to calibrate DO, conductivity, and pH</t>
-  </si>
-  <si>
     <t>waited for readings to stabilize before accepting calibration</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>Securely attached line to block and buoy to line using proper knots (bowline and lobster buoy hitch)</t>
   </si>
   <si>
-    <t>Followed SOP to filter water samples for TSS and chl a</t>
-  </si>
-  <si>
     <t>Followed SOP to use YSI, secchi disk, and LiCOR to measure water quality, secchi depth, and a vertical light profile</t>
   </si>
   <si>
@@ -104,13 +92,25 @@
     <t>Recorded researcher names, date, and location on water quality data sheet</t>
   </si>
   <si>
-    <t>Properly secured boat to dock using a cleat hitch</t>
-  </si>
-  <si>
     <t>task (10 points each)</t>
   </si>
   <si>
     <t>completed correctly?</t>
+  </si>
+  <si>
+    <t>followed SOP to calibrate DO, conductivity, and pH (2-point calibration)</t>
+  </si>
+  <si>
+    <t>**Filtering for TSS**</t>
+  </si>
+  <si>
+    <t>Followed SOP to filter water samples for TSS</t>
+  </si>
+  <si>
+    <t>Labeled foil with name, date, location, filter number, and volume filtered</t>
+  </si>
+  <si>
+    <t>Properly secured boat to dock using a cleat hitch and clove hitch+half hitch</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,13 +497,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -511,12 +511,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -524,86 +524,86 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/skills-checklist.xlsx
+++ b/skills-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025SP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2025FA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727C501-8533-C048-90D4-DE643F2BDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B9BBD4-F58A-1D45-83AF-4BA8262631CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="1980" windowWidth="28240" windowHeight="17220" xr2:uid="{BD0AF76A-7B50-2B47-A6C8-107778DA5607}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>**YSI calibration**</t>
   </si>
   <si>
@@ -92,12 +89,6 @@
     <t>Recorded researcher names, date, and location on water quality data sheet</t>
   </si>
   <si>
-    <t>task (10 points each)</t>
-  </si>
-  <si>
-    <t>completed correctly?</t>
-  </si>
-  <si>
     <t>followed SOP to calibrate DO, conductivity, and pH (2-point calibration)</t>
   </si>
   <si>
@@ -111,6 +102,15 @@
   </si>
   <si>
     <t>Properly secured boat to dock using a cleat hitch and clove hitch+half hitch</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>skill</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,113 +497,113 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
